--- a/biology/Zoologie/Encyrtidae/Encyrtidae.xlsx
+++ b/biology/Zoologie/Encyrtidae/Encyrtidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Encyrtidae sont une famille d'insectes hyménoptères apocrites de la super-famille des Chalcidoidea. Ils sont d'une grande importance en lutte biologique car tous sont entomophages.
 </t>
@@ -511,7 +523,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Très petits insectes de 0,5 à 3,5 mm (1 mm en moyenne).
 Aspect robuste, court et aplati, à éclat métallique jaune, orange, rouge ou marron.
@@ -551,7 +565,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Tous sont des insectes entomophages : deux Encyrtidae sur trois sont des endoparasitoïdes solitaires d'hémiptères, essentiellement de cochenilles du genre Leucanium. Le restant parasite des œufs, larves ou nymphes de lépidoptères, chrysomèles, punaises, cécidomyies et tiques.  Les Copidosomatini sont tous parasites de lépidoptères.
 Trechnites psyllae et Prionomitus mitratus sont endoparasites de Psylla pyri (psylle du poirier). Compercia merceti parasite la blatte Supella longipalpa.
@@ -585,13 +601,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille contient deux sous-familles regroupant autour de 460 genres pour 3 600 espèces décrites :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cette famille contient deux sous-familles regroupant autour de 460 genres pour 3 600 espèces décrites :
 La sous-famille des Encyrtinae comprenant 350 genres et 2 800 espèces.
-La sous-famille des Tetracnemynae comprenant 100 genres et 800 espèces.
-Liste des genres
-Sous-famille Encyrtinae Walker 1837 :
+La sous-famille des Tetracnemynae comprenant 100 genres et 800 espèces.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Encyrtidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Encyrtidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-famille Encyrtinae Walker 1837 :
 Acerophagus Smith 1880
 Achalcerinys Girault 1915
 Adelencyrtoides Tachikawa &amp; Valentine 1969
@@ -1055,31 +1107,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Encyrtidae</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Encyrtidae</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Utilisation en lutte biologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une famille de la plus grande importance en lutte biologique car la plus utilisée : une cinquantaine d'espèces ont été employées à ce jour contre les cochenilles.
 Anagyrus lopezi (De Santis,1964), (Hym. Tetracneminae) originaire d'Amérique du sud, fut utilisé à vaste échelle contre la cochenille du manioc Phenacoccus manihoti (Matile-Ferrero) (Hom. Pseudococcidae) en Afrique. 
